--- a/biology/Botanique/Rasteau_(VDN)/Rasteau_(VDN).xlsx
+++ b/biology/Botanique/Rasteau_(VDN)/Rasteau_(VDN).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le rasteau[2] est l'un des deux vins doux naturels du vignoble de la vallée du Rhône, le second est le muscat de Beaumes-de-Venise, les deux étant produits dans le département de Vaucluse.
+Le rasteau est l'un des deux vins doux naturels du vignoble de la vallée du Rhône, le second est le muscat de Beaumes-de-Venise, les deux étant produits dans le département de Vaucluse.
 Le vin doux naturel rasteau, produit sur les communes de Cairanne, Rasteau et Sablet, fait partie de l'appellation rasteau qui compte aussi des vins rouges produits uniquement sur la commune de Rasteau.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières traces écrites du vignoble de Rasteau datent de l'an 1005. C'était alors une mense dépendante de l'évêque de Vaison-la-Romaine.
 </t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus ancienne graphie attestée est de Rastellum, reprenant le vocable latin rastellum (râteau). C'est une métaphore d'origine oronymique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne graphie attestée est de Rastellum, reprenant le vocable latin rastellum (râteau). C'est une métaphore d'origine oronymique.
 </t>
         </is>
       </c>
@@ -575,120 +591,128 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'AOC rasteau se situe dans le nord de Vaucluse entre les vallées de l'Aigues et de l'Ouvèze.
-Orographie
-Le village émerge au-dessus de ses vignes plantées soit en terrasses, soit en croupes arrondies, la quasi-totalité de son vignoble se situe sur la « montagne » de Ventabren. Les pentes de ses coteaux exposés plein sud font un paravent au mistral.
-Géologie
-La « montagne » de Ventabren est une ancienne terrasse du diluvium alpin composée d'une matrice d'argile rouge, très riche en galets roulés de quartz et de calcaire gris.
-Climatologie
-Ce terroir est située dans la zone d’influence du climat méditerranéen. Les étés sont chauds et secs, liés à la remontée en altitude des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare. Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps[4]. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AOC rasteau se situe dans le nord de Vaucluse entre les vallées de l'Aigues et de l'Ouvèze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le village émerge au-dessus de ses vignes plantées soit en terrasses, soit en croupes arrondies, la quasi-totalité de son vignoble se situe sur la « montagne » de Ventabren. Les pentes de ses coteaux exposés plein sud font un paravent au mistral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « montagne » de Ventabren est une ancienne terrasse du diluvium alpin composée d'une matrice d'argile rouge, très riche en galets roulés de quartz et de calcaire gris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ce terroir est située dans la zone d’influence du climat méditerranéen. Les étés sont chauds et secs, liés à la remontée en altitude des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare. Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble ;
 La saisonnalité des pluies est très marquée ;
 Les températures sont très chaudes pendant l'été.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rasteau_(VDN)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Terroir et vin</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Implanté sur un dépôt de moraines composé de marnes argileuses grises recouvertes de cailloutis et de galets, le grenache, cépage principal de l'appellation, atteint très facilement le stade de la surmaturation avec des taux de sucre de l'ordre de 260 à 300 g par litre. Dans ces conditions, il est quasiment impossible à des vinificateurs d'élaborer un vin classique. 
-Après des vendanges faites à la main, on mute ce moût en cours de fermentation[5]. Cela permet d'obtenir deux styles de vin doux naturel. Le rasteau ambré à la robe ambrée et aux arômes de fruits secs, d'abricot et de miel ; le rasteau grenat qui a un nez de pruneaux cuits et d'épices chaudes évoluant, en cours de vieillissement, vers un type rancio. Dans les deux cas, la bouche est ample, fondante et harmonieuse.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rasteau_(VDN)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Vinification</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le rasteau doré le grenache noir est vinifié en rosé, issu de la saignée d'une cuve (soutirage du jus d'une cuve après une courte macération de quelques heures), qui sera muté par ajout d'alcool neutre vinique qui arrêtera la fermentation et permettra de conserver le sucre naturellement présent dans le jus de raisin. Tandis que pour le rasteau rouge les raisins sont foulés et macèrent en cuve. Lors du mutage, qui arrête toute fermentation, le moût conserve une partie des sucres naturels des raisins. Le vin obtenu est donc naturellement sucré, naturellement doux. Le degré minimum de l'AOC rasteau VDN est de 15° d'alcool acquis. Ce vin peut vieillir de trois à huit ans pour les dorés et jusqu'à dix ans et plus pour les rouges.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rasteau_(VDN)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Température de service et gastronomie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rafraîchi à 8/10°, le rasteau doré se déguste à l'apéritif ou au cours du repas, accompagné de foie gras, d'un plat à base de curry ou de paprika. Il est parfait sur un fromage à pâte persillée, des fruits d'été épicés de poivre et de coriandre, un dessert à base de miel, sur de la pâte de coing ou des abricots secs. 
-Le rasteau rouge se déguste à 12°. Il accompagne parfaitement son voisin, le melon de Cavaillon. Il forme un couple parfait avec le gibier : chevreuil[6], faisan[7], de même qu'avec les volailles[8]et les ris de veau.
-Les deux styles de rasteau s'accordent avec bonheur aux pruneaux cuits, aux noisettes, aux dattes et aux figues sèches[9], aux desserts à base de chocolat, café ou orange.
-Millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
-Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -710,12 +734,154 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Terroir et vin</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Implanté sur un dépôt de moraines composé de marnes argileuses grises recouvertes de cailloutis et de galets, le grenache, cépage principal de l'appellation, atteint très facilement le stade de la surmaturation avec des taux de sucre de l'ordre de 260 à 300 g par litre. Dans ces conditions, il est quasiment impossible à des vinificateurs d'élaborer un vin classique. 
+Après des vendanges faites à la main, on mute ce moût en cours de fermentation. Cela permet d'obtenir deux styles de vin doux naturel. Le rasteau ambré à la robe ambrée et aux arômes de fruits secs, d'abricot et de miel ; le rasteau grenat qui a un nez de pruneaux cuits et d'épices chaudes évoluant, en cours de vieillissement, vers un type rancio. Dans les deux cas, la bouche est ample, fondante et harmonieuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le rasteau doré le grenache noir est vinifié en rosé, issu de la saignée d'une cuve (soutirage du jus d'une cuve après une courte macération de quelques heures), qui sera muté par ajout d'alcool neutre vinique qui arrêtera la fermentation et permettra de conserver le sucre naturellement présent dans le jus de raisin. Tandis que pour le rasteau rouge les raisins sont foulés et macèrent en cuve. Lors du mutage, qui arrête toute fermentation, le moût conserve une partie des sucres naturels des raisins. Le vin obtenu est donc naturellement sucré, naturellement doux. Le degré minimum de l'AOC rasteau VDN est de 15° d'alcool acquis. Ce vin peut vieillir de trois à huit ans pour les dorés et jusqu'à dix ans et plus pour les rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Température de service et gastronomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rafraîchi à 8/10°, le rasteau doré se déguste à l'apéritif ou au cours du repas, accompagné de foie gras, d'un plat à base de curry ou de paprika. Il est parfait sur un fromage à pâte persillée, des fruits d'été épicés de poivre et de coriandre, un dessert à base de miel, sur de la pâte de coing ou des abricots secs. 
+Le rasteau rouge se déguste à 12°. Il accompagne parfaitement son voisin, le melon de Cavaillon. Il forme un couple parfait avec le gibier : chevreuil, faisan, de même qu'avec les volailleset les ris de veau.
+Les deux styles de rasteau s'accordent avec bonheur aux pruneaux cuits, aux noisettes, aux dattes et aux figues sèches, aux desserts à base de chocolat, café ou orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Température de service et gastronomie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Millésimes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Domaine Martin
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Domaine Martin
 Cave des vins de Rasteau
 SCEA Domaine Les Girasols
 Domaine Coteaux Travers
@@ -725,18 +891,87 @@
 Domaine Beau Mistral
 Domaine des Nymphes du Grand Jas
 Domaine Didier Charavin
-Domaine la Girardière
-Caveaux de dégustation
-Une charte de qualité, à laquelle adhèrent caves et domaines de Rasteau, a été mise en place dans la vallée du Rhône par Inter Rhône[11]. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels[12]. 
-La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres)[11].
-L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation[11]. 
+Domaine la Girardière</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les principaux producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Caveaux de dégustation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une charte de qualité, à laquelle adhèrent caves et domaines de Rasteau, a été mise en place dans la vallée du Rhône par Inter Rhône. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels. 
+La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres).
+L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation. 
 Caveaux à Rasteau
-La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais[13]
+La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais
 Caveaux à Rasteau
-La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais[14].
+La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais.
 Caveaux à Rasteau
-Musée de la vigne et du vin
-À la sortie du village, sur la route de Vaison-la-Romaine, se trouve un musée de la vigne et du vin qui permet de découvrir, en cours de visite des sept salles, des outils vignerons, les anciens système de soins de la vigne (sulfatage), toute une collection de cartes postales anciennes sur la viticulture vauclusienne. Ce tour d'horizon se termine par une dégustation des vins du propriétaire, vigneron à Rasteau et à Châteauneuf-du-Pape[15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(VDN)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les principaux producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Musée de la vigne et du vin</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la sortie du village, sur la route de Vaison-la-Romaine, se trouve un musée de la vigne et du vin qui permet de découvrir, en cours de visite des sept salles, des outils vignerons, les anciens système de soins de la vigne (sulfatage), toute une collection de cartes postales anciennes sur la viticulture vauclusienne. Ce tour d'horizon se termine par une dégustation des vins du propriétaire, vigneron à Rasteau et à Châteauneuf-du-Pape.
 </t>
         </is>
       </c>
